--- a/pattern/3ds_max_doc/glass/vc_list.xlsx
+++ b/pattern/3ds_max_doc/glass/vc_list.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="investor" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="salers" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="1070">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4792,6 +4792,52 @@
   </si>
   <si>
     <t xml:space="preserve">浦软创投 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.prsr.com.cn/pages/about</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈昌集团有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话：400-874-6988 
+网址：www.prsr.com.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOLON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门雅瑞光学有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bolon.cn/lianxii.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400-885-8586
+前台 0592-2960288
+0592-6051470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝岛眼镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国服务热线: 400-820-7188
+武汉400-889-9930
+成都400-899-5868
+宁波 400-113-6199</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5151,7 +5197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+    <sheetView topLeftCell="A411" workbookViewId="0">
       <selection activeCell="B416" sqref="B416"/>
     </sheetView>
   </sheetViews>
@@ -10968,12 +11014,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="35.25" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="35.1" customHeight="1">
+      <c r="A3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/pattern/3ds_max_doc/glass/vc_list.xlsx
+++ b/pattern/3ds_max_doc/glass/vc_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1665" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1073">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4838,6 +4838,18 @@
 武汉400-889-9930
 成都400-899-5868
 宁波 400-113-6199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOHO 眼鏡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市乐活电子商务有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海伦凯勒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11014,10 +11026,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D4"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>
@@ -11061,6 +11073,19 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>1069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="35.1" customHeight="1">
+      <c r="B5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C6" t="s">
+        <v>1072</v>
       </c>
     </row>
   </sheetData>

--- a/pattern/3ds_max_doc/glass/vc_list.xlsx
+++ b/pattern/3ds_max_doc/glass/vc_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1082">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4850,6 +4850,42 @@
   </si>
   <si>
     <t>海伦凯勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派丽蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣大保罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佩迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花雨伞 ARNOLD PALMER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹 Jaguar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花花公子 Playboy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JEEP SPIRIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11026,10 +11062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D6"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>
@@ -11086,6 +11122,51 @@
     <row r="6" spans="1:4" ht="35.1" customHeight="1">
       <c r="C6" t="s">
         <v>1072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C7" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C8" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C9" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C10" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C11" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C12" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C13" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C14" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="35.1" customHeight="1">
+      <c r="C15" t="s">
+        <v>1081</v>
       </c>
     </row>
   </sheetData>

--- a/pattern/3ds_max_doc/glass/vc_list.xlsx
+++ b/pattern/3ds_max_doc/glass/vc_list.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="investor" sheetId="1" r:id="rId1"/>
     <sheet name="salers" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="bolon" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="1167">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4803,10 +4803,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>帕莎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话：400-874-6988 
 网址：www.prsr.com.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4886,6 +4882,280 @@
   </si>
   <si>
     <t>JEEP SPIRIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您好，ＬＯＨＯ生态事业体系欢迎具有当地核心商场渠道资源的
+合作伙伴与ＬＯＨＯ共赢发展，详细情况您可咨询我司刘先生，
+１５９１４０３７５３９（微信同号），您可电话或加其微信，
+非常感谢您的咨询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">吴美华 (Walt)
+资深电子商务运营总监
+https://www.linkedin.com/in/%E7%BE%8E%E5%8D%8E-%E5%90%B4-47b6a410b/  
+付卫强
+深圳市乐活电子商务有限公司 — 北区拓展总监
+https://www.linkedin.com/in/%E5%8D%AB%E5%BC%BA-%E4%BB%98-b41b1bb2/
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅瑞光学 — 市场总监
+https://www.linkedin.com/in/%E5%87%8C%E8%8D%A3-%E5%88%98-503476b9/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址：厦门湖里区仙岳路4666号湖里万达广场一楼</t>
+  </si>
+  <si>
+    <t>电话：18259219085</t>
+  </si>
+  <si>
+    <t>地址：厦门市思明区厦禾路889号罗宾森购物广场一楼S1-11</t>
+  </si>
+  <si>
+    <t>福州仓山万达店</t>
+  </si>
+  <si>
+    <t>地址：福建省福州市仓山区浦上大道276号仓山万达广场1楼</t>
+  </si>
+  <si>
+    <t>电话：15980640305</t>
+  </si>
+  <si>
+    <t>上海恒隆店</t>
+  </si>
+  <si>
+    <t>地址：上海静安区南京西路1189号BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：13901945022</t>
+  </si>
+  <si>
+    <t>上海悦荟店</t>
+  </si>
+  <si>
+    <t>地址：上海市黄浦区南京东路353号</t>
+  </si>
+  <si>
+    <t>电话：13816899645</t>
+  </si>
+  <si>
+    <t>上海虹口龙之梦店</t>
+  </si>
+  <si>
+    <t>地址：上海市虹口区西江湾路路388号(A)02层55号BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：13761625571</t>
+  </si>
+  <si>
+    <t>上海宝山万达店</t>
+  </si>
+  <si>
+    <t>地址：上海市宝山区一二八纪念路968号宝山万达2层BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：13918764596</t>
+  </si>
+  <si>
+    <t>上海五角场万达店</t>
+  </si>
+  <si>
+    <t>地址：上海市杨浦区淞沪路77号万达广场B1 BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：13564937730</t>
+  </si>
+  <si>
+    <t>上海中山公园龙之梦店</t>
+  </si>
+  <si>
+    <t>地址：上海市长宁区长宁路1018号龙之梦商场蓝区二楼2059单元BOLON专柜</t>
+  </si>
+  <si>
+    <t>上海正大广场店</t>
+  </si>
+  <si>
+    <t>地址：上海市浦东新区陆家嘴西路168号正大广场2楼M51 BOLON专柜</t>
+  </si>
+  <si>
+    <t>上海嘉定大融城店</t>
+  </si>
+  <si>
+    <t>地址：上海市嘉定区宝安公路3386号大融城1楼BOLON专柜</t>
+  </si>
+  <si>
+    <t>郑州锦艺城店</t>
+  </si>
+  <si>
+    <t>地址：郑州市中原区棉纺西路锦艺城C区一楼C1-12 BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：18039220162</t>
+  </si>
+  <si>
+    <t>西安赛格店</t>
+  </si>
+  <si>
+    <t>地址：西安市雁塔区小寨十字赛格国际购物中心一楼暴龙专柜</t>
+  </si>
+  <si>
+    <t>电话：029-87566194</t>
+  </si>
+  <si>
+    <t>广州广百店</t>
+  </si>
+  <si>
+    <t>地址：广州市海珠区宝岗大道498号广百新一城商场1楼（全棉时代正对面）</t>
+  </si>
+  <si>
+    <t>电话：15812413536</t>
+  </si>
+  <si>
+    <t>天津爱琴海店</t>
+  </si>
+  <si>
+    <t>地址：天津市河东区160号爱情海购物公园1楼BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：15122845168</t>
+  </si>
+  <si>
+    <t>天津嘉里汇店</t>
+  </si>
+  <si>
+    <t>地址：天津市河东区六纬路嘉里汇购物中心L1层，L1-K008 BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：13820610195</t>
+  </si>
+  <si>
+    <t>天津水游城店</t>
+  </si>
+  <si>
+    <t>地址：天津市红桥区大丰路水游城1楼BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：13752375343</t>
+  </si>
+  <si>
+    <t>河北永旺店</t>
+  </si>
+  <si>
+    <t>地址：河北省廊坊三河市燕郊高新区102国道北侧27号永旺梦乐城一楼111-15号BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：15127682295</t>
+  </si>
+  <si>
+    <t>北京金地店</t>
+  </si>
+  <si>
+    <t>地址：北京市朝阳区建国路91号金地广场一楼BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：13651238500</t>
+  </si>
+  <si>
+    <t>陌森宜昌万达店</t>
+  </si>
+  <si>
+    <t>地址：湖北省宜昌市伍家岗区166号万达广场1号门1楼107陌森眼镜</t>
+  </si>
+  <si>
+    <t>电话：15090907073</t>
+  </si>
+  <si>
+    <t>河南三门峡店</t>
+  </si>
+  <si>
+    <t>地址：河南省三门峡市和平西路万达广场BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：15139814711</t>
+  </si>
+  <si>
+    <t>天津河西万达店</t>
+  </si>
+  <si>
+    <t>地址：天津市河东区津滨大道160号爱琴海购物广场1楼BOLON专柜</t>
+  </si>
+  <si>
+    <t>电话：13662162666</t>
+  </si>
+  <si>
+    <t>陌森湖州万达店</t>
+  </si>
+  <si>
+    <t>地址：浙江省湖州市吴兴区大升路万达广场1楼1070B 陌森专柜</t>
+  </si>
+  <si>
+    <t>电话：13732365109</t>
+  </si>
+  <si>
+    <t>厦门SM城市广场店</t>
+  </si>
+  <si>
+    <t>地址：厦门市湖里区嘉禾路SM城市广场2楼</t>
+  </si>
+  <si>
+    <t>电话：15606002033</t>
+  </si>
+  <si>
+    <t>海南海口万达店</t>
+  </si>
+  <si>
+    <t>地址：海南省海口市秀英区秀英街道海榆中线29号万达广场2楼</t>
+  </si>
+  <si>
+    <t>电话：13098990276</t>
+  </si>
+  <si>
+    <t>福州大洋天地店</t>
+  </si>
+  <si>
+    <t>地址：福建省福州市鼓楼区五一中路18号正大广场一楼</t>
+  </si>
+  <si>
+    <t>电话：0591-63102956</t>
+  </si>
+  <si>
+    <t>福州万象城天虹店</t>
+  </si>
+  <si>
+    <t>地址：福建省福州市台江区工业路378号万象城天虹百货</t>
+  </si>
+  <si>
+    <t>电话：0591-63102958</t>
+  </si>
+  <si>
+    <t>沈阳太原街店</t>
+  </si>
+  <si>
+    <t>地址：沈阳市和平区太原南街2号，万达广场1楼</t>
+  </si>
+  <si>
+    <t>电话：13109896398</t>
+  </si>
+  <si>
+    <t>沈阳铁西店</t>
+  </si>
+  <si>
+    <t>地址：沈阳是铁西区兴华南街58号，万达广场1楼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMALL </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没回应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4893,7 +5163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4914,6 +5184,20 @@
       <color rgb="FF5A626D"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -4939,7 +5223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4947,6 +5231,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11062,20 +11352,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.25" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="35.1" customHeight="1">
+    <row r="2" spans="1:5" ht="35.1" customHeight="1">
       <c r="A2" t="s">
         <v>1060</v>
       </c>
@@ -11083,90 +11374,99 @@
         <v>1061</v>
       </c>
       <c r="C2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1062</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C3" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="35.1" customHeight="1">
-      <c r="A3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="B3" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C4" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="63.75" customHeight="1">
+      <c r="B5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C5" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="35.1" customHeight="1">
-      <c r="B5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C6" t="s">
         <v>1071</v>
       </c>
-      <c r="C5" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C7" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C7" t="s">
+    <row r="8" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C8" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C8" t="s">
+    <row r="9" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C9" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C9" t="s">
+    <row r="10" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C10" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C10" t="s">
+    <row r="11" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C11" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C11" t="s">
+    <row r="12" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C12" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C12" t="s">
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C13" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C13" t="s">
+    <row r="14" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C14" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C14" t="s">
+    <row r="15" spans="1:5" ht="35.1" customHeight="1">
+      <c r="C15" t="s">
         <v>1080</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="35.1" customHeight="1">
-      <c r="C15" t="s">
-        <v>1081</v>
       </c>
     </row>
   </sheetData>
@@ -11178,12 +11478,398 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1">
+      <c r="C3" s="3" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.5">
+      <c r="A4" s="3" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5">
+      <c r="A5" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
+      <c r="C6" s="3" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.5">
+      <c r="A8" s="3" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25">
+      <c r="C10" s="3" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5">
+      <c r="A11" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25">
+      <c r="A12" s="3" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5">
+      <c r="A13" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5">
+      <c r="C14" s="3" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5">
+      <c r="A15" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25">
+      <c r="A16" s="3" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5">
+      <c r="A17" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14.25">
+      <c r="C18" s="3" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5">
+      <c r="A19" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.5">
+      <c r="A20" s="3" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5">
+      <c r="A21" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.5">
+      <c r="C22" s="3" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5">
+      <c r="A23" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.5">
+      <c r="A24" s="3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5">
+      <c r="A25" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25">
+      <c r="C26" s="3" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5">
+      <c r="A27" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.5">
+      <c r="A28" s="3" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5">
+      <c r="A29" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25">
+      <c r="C30" s="3" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5">
+      <c r="A31" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="28.5">
+      <c r="A32" s="3" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.5">
+      <c r="A33" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="14.25">
+      <c r="C34" s="3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.5">
+      <c r="A35" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.5">
+      <c r="A36" s="3" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.5">
+      <c r="A37" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="14.25">
+      <c r="C38" s="3" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.5">
+      <c r="A39" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="28.5">
+      <c r="A40" s="3" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.5">
+      <c r="A41" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25">
+      <c r="C42" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16.5">
+      <c r="A43" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.5">
+      <c r="A44" s="3" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5">
+      <c r="A45" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25">
+      <c r="C46" s="3" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5">
+      <c r="A47" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.5">
+      <c r="A48" s="3" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5">
+      <c r="A49" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14.25">
+      <c r="C50" s="3" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5">
+      <c r="A51" s="4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.5">
+      <c r="A52" s="3" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14.25">
+      <c r="A53" s="3" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5">
+      <c r="A55" s="4" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="28.5">
+      <c r="A56" s="3" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25">
+      <c r="A57" s="3" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5">
+      <c r="A59" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="28.5">
+      <c r="A60" s="3" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14.25">
+      <c r="A61" s="3" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
